--- a/DataBase/Data/Craft.xlsx
+++ b/DataBase/Data/Craft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMPC\Project_G\DataBase\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA983EF4-59D9-4913-9119-4AB2C211A969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F06572A-4CA3-4DD3-BA00-CE3FFDD9233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5955" yWindow="3720" windowWidth="15465" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,19 +77,23 @@
     <t>int</t>
   </si>
   <si>
-    <t>Axe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IronIngot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gauntlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pipe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaserGun</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -497,28 +501,54 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I3">
         <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Data/Craft.xlsx
+++ b/DataBase/Data/Craft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KSMPC\Project_G\DataBase\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F06572A-4CA3-4DD3-BA00-CE3FFDD9233E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533FF7DC-D34F-4293-97DE-A2F583B2A6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="3720" windowWidth="15465" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18915" yWindow="4290" windowWidth="15465" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,30 +67,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>IronIngot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gauntlet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pipe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LaserGun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -419,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -440,31 +413,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -472,65 +445,59 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>15</v>
+      <c r="B3">
+        <v>3001</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4001</v>
       </c>
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4">
+        <v>1001</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -538,17 +505,208 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
-        <v>13</v>
+      <c r="F4">
+        <v>4101</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1002</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4102</v>
+      </c>
+      <c r="E5">
         <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4101</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1003</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1001</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>4102</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>4103</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1004</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1001</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>4101</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>4102</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2001</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>4102</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4103</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2002</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>4101</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>4102</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>4103</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2003</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>4101</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>4102</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>4103</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2004</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4101</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>4102</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
